--- a/Atividades e trabalhos/Tabela tempo - atividade 1.xlsx
+++ b/Atividades e trabalhos/Tabela tempo - atividade 1.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b7688530a25417d1/Documentos/GitHub/Estrutura-de-dados/Revisão/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b7688530a25417d1/Documentos/GitHub/Estrutura-de-dados/Atividades e trabalhos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A5074CB0-FAF7-47FA-9E94-9D0CE10C2732}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="217" documentId="8_{A5074CB0-FAF7-47FA-9E94-9D0CE10C2732}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C5113D18-D2BB-4481-9749-C1D5ACB8BEE0}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CF8BE327-81CB-4B45-8362-CEA50BEE114D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{CF8BE327-81CB-4B45-8362-CEA50BEE114D}"/>
   </bookViews>
   <sheets>
-    <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Atividade 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Trabalho 1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="60">
   <si>
     <t>Tipo de ordenação</t>
   </si>
@@ -120,13 +121,109 @@
   </si>
   <si>
     <t>1.025 ms</t>
+  </si>
+  <si>
+    <t>Tamanho do vetor</t>
+  </si>
+  <si>
+    <t>Cresente</t>
+  </si>
+  <si>
+    <t>Decrescente</t>
+  </si>
+  <si>
+    <t>Aleatório</t>
+  </si>
+  <si>
+    <t>QuickSort</t>
+  </si>
+  <si>
+    <t>Inserção direta</t>
+  </si>
+  <si>
+    <t>Seleção direta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tempo de execução </t>
+  </si>
+  <si>
+    <t>0.4 ms</t>
+  </si>
+  <si>
+    <t>0.682 ms</t>
+  </si>
+  <si>
+    <t>97.086 ms</t>
+  </si>
+  <si>
+    <t>8.676 s</t>
+  </si>
+  <si>
+    <t>1.458 ms</t>
+  </si>
+  <si>
+    <t>1.407 ms</t>
+  </si>
+  <si>
+    <t>141.529 ms</t>
+  </si>
+  <si>
+    <t>14.225 s</t>
+  </si>
+  <si>
+    <t>0.023 ms</t>
+  </si>
+  <si>
+    <t>2.861 ms</t>
+  </si>
+  <si>
+    <t>148.078 ms</t>
+  </si>
+  <si>
+    <t>13.660 s</t>
+  </si>
+  <si>
+    <t>0.196 ms</t>
+  </si>
+  <si>
+    <t>1.546 ms</t>
+  </si>
+  <si>
+    <t>62.794 ms</t>
+  </si>
+  <si>
+    <t>4.704 s</t>
+  </si>
+  <si>
+    <t>2.596 ms</t>
+  </si>
+  <si>
+    <t>0.448 ms</t>
+  </si>
+  <si>
+    <t>56.442 ms</t>
+  </si>
+  <si>
+    <t>3.252 s</t>
+  </si>
+  <si>
+    <t>0.016 ms</t>
+  </si>
+  <si>
+    <t>0.656 ms</t>
+  </si>
+  <si>
+    <t>33.308 ms</t>
+  </si>
+  <si>
+    <t>3.195 s</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -149,8 +246,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -192,8 +302,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -308,6 +436,178 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -318,7 +618,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -353,7 +653,6 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -367,6 +666,138 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -684,10 +1115,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5383AB13-1E8F-46EB-B13B-FE6EEED3D933}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -711,10 +1142,10 @@
       <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="12" t="s">
         <v>19</v>
       </c>
     </row>
@@ -725,10 +1156,10 @@
       <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="13" t="s">
         <v>20</v>
       </c>
     </row>
@@ -737,10 +1168,10 @@
       <c r="B4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="15" t="s">
         <v>21</v>
       </c>
     </row>
@@ -749,10 +1180,10 @@
       <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="12" t="s">
         <v>22</v>
       </c>
     </row>
@@ -763,10 +1194,10 @@
       <c r="B6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="13" t="s">
         <v>23</v>
       </c>
     </row>
@@ -775,10 +1206,10 @@
       <c r="B7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="15" t="s">
         <v>24</v>
       </c>
     </row>
@@ -787,10 +1218,10 @@
       <c r="B8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="13" t="s">
         <v>25</v>
       </c>
     </row>
@@ -801,10 +1232,10 @@
       <c r="B9" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="13" t="s">
         <v>26</v>
       </c>
     </row>
@@ -813,21 +1244,511 @@
       <c r="B10" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="15" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D16" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E443321C-0682-494A-BA77-2F8B0F6866B2}">
+  <dimension ref="A1:F49"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="23.6640625" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" customWidth="1"/>
+    <col min="3" max="3" width="19.5546875" customWidth="1"/>
+    <col min="4" max="4" width="20.77734375" customWidth="1"/>
+    <col min="5" max="6" width="14.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="24"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="51">
+        <v>100</v>
+      </c>
+      <c r="D2" s="42" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="24"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="52">
+        <v>1000</v>
+      </c>
+      <c r="D3" s="43" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="24"/>
+      <c r="B4" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="52">
+        <v>10000</v>
+      </c>
+      <c r="D4" s="43" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="24"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="53">
+        <v>100000</v>
+      </c>
+      <c r="D5" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="17"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="24"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="48">
+        <v>100</v>
+      </c>
+      <c r="D6" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="17"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="24"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="49">
+        <v>1000</v>
+      </c>
+      <c r="D7" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="17"/>
+    </row>
+    <row r="8" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="49">
+        <v>10000</v>
+      </c>
+      <c r="D8" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="17"/>
+    </row>
+    <row r="9" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="24"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="50">
+        <v>100000</v>
+      </c>
+      <c r="D9" s="47" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="17"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="24"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="55">
+        <v>100</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="17"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="24"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="56">
+        <v>1000</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="17"/>
+    </row>
+    <row r="12" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="24"/>
+      <c r="B12" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="56">
+        <v>10000</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" s="17"/>
+    </row>
+    <row r="13" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="28"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="57">
+        <v>100000</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" s="17"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="24"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="39">
+        <v>100</v>
+      </c>
+      <c r="D14" s="59" t="s">
+        <v>48</v>
+      </c>
+      <c r="F14" s="17"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="24"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="40">
+        <v>1000</v>
+      </c>
+      <c r="D15" s="58" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15" s="17"/>
+    </row>
+    <row r="16" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="24"/>
+      <c r="B16" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="40">
+        <v>10000</v>
+      </c>
+      <c r="D16" s="58" t="s">
+        <v>50</v>
+      </c>
+      <c r="F16" s="17"/>
+    </row>
+    <row r="17" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="24"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="41">
+        <v>100000</v>
+      </c>
+      <c r="D17" s="60" t="s">
+        <v>51</v>
+      </c>
+      <c r="F17" s="17"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="24"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="48">
+        <v>100</v>
+      </c>
+      <c r="D18" s="59" t="s">
+        <v>52</v>
+      </c>
+      <c r="F18" s="17"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="24"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="49">
+        <v>1000</v>
+      </c>
+      <c r="D19" s="58" t="s">
+        <v>53</v>
+      </c>
+      <c r="F19" s="17"/>
+    </row>
+    <row r="20" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="49">
+        <v>10000</v>
+      </c>
+      <c r="D20" s="58" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="24"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="50">
+        <v>100000</v>
+      </c>
+      <c r="D21" s="60" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="24"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="55">
+        <v>100</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="24"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="56">
+        <v>1000</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="24"/>
+      <c r="B24" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" s="56">
+        <v>10000</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="28"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="57">
+        <v>100000</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="24"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="54">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="24"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="36">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="24"/>
+      <c r="B28" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" s="36">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="24"/>
+      <c r="B29" s="38"/>
+      <c r="C29" s="36">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="24"/>
+      <c r="B30" s="33"/>
+      <c r="C30" s="32">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="24"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="32">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32" s="32">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="24"/>
+      <c r="B33" s="35"/>
+      <c r="C33" s="32">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="24"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="29">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A35" s="24"/>
+      <c r="B35" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C35" s="29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="24"/>
+      <c r="B36" s="20"/>
+      <c r="C36" s="29">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="28"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="29">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="24"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="36">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="24"/>
+      <c r="B39" s="21"/>
+      <c r="C39" s="36">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A40" s="24"/>
+      <c r="B40" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="C40" s="36">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="24"/>
+      <c r="B41" s="38"/>
+      <c r="C41" s="36">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="24"/>
+      <c r="B42" s="33"/>
+      <c r="C42" s="32">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="24"/>
+      <c r="B43" s="19"/>
+      <c r="C43" s="32">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A44" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B44" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="C44" s="32">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="24"/>
+      <c r="B45" s="35"/>
+      <c r="C45" s="32">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="24"/>
+      <c r="B46" s="30"/>
+      <c r="C46" s="29">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="24"/>
+      <c r="B47" s="20"/>
+      <c r="C47" s="29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A48" s="24"/>
+      <c r="B48" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48" s="29">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="28"/>
+      <c r="B49" s="22"/>
+      <c r="C49" s="29">
+        <v>100000</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Atividades e trabalhos/Tabela tempo - atividade 1.xlsx
+++ b/Atividades e trabalhos/Tabela tempo - atividade 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b7688530a25417d1/Documentos/GitHub/Estrutura-de-dados/Atividades e trabalhos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="217" documentId="8_{A5074CB0-FAF7-47FA-9E94-9D0CE10C2732}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C5113D18-D2BB-4481-9749-C1D5ACB8BEE0}"/>
+  <xr:revisionPtr revIDLastSave="264" documentId="8_{A5074CB0-FAF7-47FA-9E94-9D0CE10C2732}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FBABE666-1481-40E9-A274-28DC4866470B}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{CF8BE327-81CB-4B45-8362-CEA50BEE114D}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="84">
   <si>
     <t>Tipo de ordenação</t>
   </si>
@@ -147,9 +147,6 @@
     <t xml:space="preserve">Tempo de execução </t>
   </si>
   <si>
-    <t>0.4 ms</t>
-  </si>
-  <si>
     <t>0.682 ms</t>
   </si>
   <si>
@@ -159,18 +156,9 @@
     <t>8.676 s</t>
   </si>
   <si>
-    <t>1.458 ms</t>
-  </si>
-  <si>
-    <t>1.407 ms</t>
-  </si>
-  <si>
     <t>141.529 ms</t>
   </si>
   <si>
-    <t>14.225 s</t>
-  </si>
-  <si>
     <t>0.023 ms</t>
   </si>
   <si>
@@ -217,6 +205,90 @@
   </si>
   <si>
     <t>3.195 s</t>
+  </si>
+  <si>
+    <t>0.446 ms</t>
+  </si>
+  <si>
+    <t>1.658 ms</t>
+  </si>
+  <si>
+    <t>1.307 ms</t>
+  </si>
+  <si>
+    <t>13.225 s</t>
+  </si>
+  <si>
+    <t>0.205 ms</t>
+  </si>
+  <si>
+    <t>2.292 ms</t>
+  </si>
+  <si>
+    <t>78.275 ms</t>
+  </si>
+  <si>
+    <t>5.892 s</t>
+  </si>
+  <si>
+    <t>1.548 ms</t>
+  </si>
+  <si>
+    <t>0.411 ms</t>
+  </si>
+  <si>
+    <t>51.989 ms</t>
+  </si>
+  <si>
+    <t>4.615 s</t>
+  </si>
+  <si>
+    <t>0.019 ms</t>
+  </si>
+  <si>
+    <t>1.523 ms</t>
+  </si>
+  <si>
+    <t>153.514 ms</t>
+  </si>
+  <si>
+    <t>15.593 s</t>
+  </si>
+  <si>
+    <t>0.141 ms</t>
+  </si>
+  <si>
+    <t>1.239 ms</t>
+  </si>
+  <si>
+    <t>6.754 ms</t>
+  </si>
+  <si>
+    <t>43.022 ms</t>
+  </si>
+  <si>
+    <t>0.038 ms</t>
+  </si>
+  <si>
+    <t>0.198 ms</t>
+  </si>
+  <si>
+    <t>2.733 ms</t>
+  </si>
+  <si>
+    <t>38.387 ms</t>
+  </si>
+  <si>
+    <t>0.054 ms</t>
+  </si>
+  <si>
+    <t>0.438 ms</t>
+  </si>
+  <si>
+    <t>2.15 ms</t>
+  </si>
+  <si>
+    <t>43.27 ms</t>
   </si>
 </sst>
 </file>
@@ -321,7 +393,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -509,30 +581,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -618,7 +666,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -668,9 +716,6 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -704,18 +749,12 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -725,22 +764,22 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
@@ -749,18 +788,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -779,9 +806,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -789,15 +813,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -816,6 +831,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1264,486 +1283,558 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E443321C-0682-494A-BA77-2F8B0F6866B2}">
   <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" customWidth="1"/>
-    <col min="2" max="2" width="17.6640625" customWidth="1"/>
+    <col min="1" max="1" width="34.77734375" customWidth="1"/>
+    <col min="2" max="2" width="26.5546875" customWidth="1"/>
     <col min="3" max="3" width="19.5546875" customWidth="1"/>
     <col min="4" max="4" width="20.77734375" customWidth="1"/>
     <col min="5" max="6" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="22" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="24"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="51">
+      <c r="A2" s="23"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="44">
         <v>100</v>
       </c>
-      <c r="D2" s="42" t="s">
+      <c r="D2" s="38" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="23"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="45">
+        <v>1000</v>
+      </c>
+      <c r="D3" s="39" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="24"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="52">
+    <row r="4" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="23"/>
+      <c r="B4" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="45">
+        <v>10000</v>
+      </c>
+      <c r="D4" s="39" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="23"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="46">
+        <v>100000</v>
+      </c>
+      <c r="D5" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="23"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="41">
+        <v>100</v>
+      </c>
+      <c r="D6" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="23"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="42">
         <v>1000</v>
       </c>
-      <c r="D3" s="43" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="24"/>
-      <c r="B4" s="37" t="s">
+      <c r="D7" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="42">
+        <v>10000</v>
+      </c>
+      <c r="D8" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="23"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="43">
+        <v>100000</v>
+      </c>
+      <c r="D9" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="23"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="47">
+        <v>100</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="23"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="48">
+        <v>1000</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="23"/>
+      <c r="B12" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="48">
+        <v>10000</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="27"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="49">
+        <v>100000</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="23"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="35">
+        <v>100</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="23"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="36">
+        <v>1000</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="23"/>
+      <c r="B16" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="52">
+      <c r="C16" s="36">
         <v>10000</v>
       </c>
-      <c r="D4" s="43" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="24"/>
-      <c r="B5" s="38"/>
-      <c r="C5" s="53">
+      <c r="D16" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="23"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="37">
         <v>100000</v>
       </c>
-      <c r="D5" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5" s="17"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="24"/>
-      <c r="B6" s="33"/>
-      <c r="C6" s="48">
+      <c r="D17" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="23"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="41">
         <v>100</v>
       </c>
-      <c r="D6" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="F6" s="17"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="24"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="49">
+      <c r="D18" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="23"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="42">
         <v>1000</v>
       </c>
-      <c r="D7" s="46" t="s">
-        <v>41</v>
-      </c>
-      <c r="F7" s="17"/>
-    </row>
-    <row r="8" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="34" t="s">
+      <c r="D19" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="49">
+      <c r="C20" s="42">
         <v>10000</v>
       </c>
-      <c r="D8" s="46" t="s">
-        <v>42</v>
-      </c>
-      <c r="F8" s="17"/>
-    </row>
-    <row r="9" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="24"/>
-      <c r="B9" s="35"/>
-      <c r="C9" s="50">
+      <c r="D20" s="13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="23"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="43">
         <v>100000</v>
       </c>
-      <c r="D9" s="47" t="s">
-        <v>43</v>
-      </c>
-      <c r="F9" s="17"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="24"/>
-      <c r="B10" s="30"/>
-      <c r="C10" s="55">
+      <c r="D21" s="15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="23"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="47">
         <v>100</v>
       </c>
-      <c r="D10" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="F10" s="17"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="24"/>
-      <c r="B11" s="20"/>
-      <c r="C11" s="56">
+      <c r="D22" s="12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="23"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="48">
         <v>1000</v>
       </c>
-      <c r="D11" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="F11" s="17"/>
-    </row>
-    <row r="12" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="24"/>
-      <c r="B12" s="31" t="s">
+      <c r="D23" s="13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="23"/>
+      <c r="B24" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="56">
+      <c r="C24" s="48">
         <v>10000</v>
       </c>
-      <c r="D12" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="F12" s="17"/>
-    </row>
-    <row r="13" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="28"/>
-      <c r="B13" s="22"/>
-      <c r="C13" s="57">
+      <c r="D24" s="13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="27"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="49">
         <v>100000</v>
       </c>
-      <c r="D13" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="F13" s="17"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="24"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="39">
+      <c r="D25" s="15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="23"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="44">
         <v>100</v>
       </c>
-      <c r="D14" s="59" t="s">
-        <v>48</v>
-      </c>
-      <c r="F14" s="17"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="24"/>
-      <c r="B15" s="21"/>
-      <c r="C15" s="40">
+      <c r="D26" s="12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="23"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="45">
         <v>1000</v>
       </c>
-      <c r="D15" s="58" t="s">
-        <v>49</v>
-      </c>
-      <c r="F15" s="17"/>
-    </row>
-    <row r="16" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="24"/>
-      <c r="B16" s="37" t="s">
+      <c r="D27" s="13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="23"/>
+      <c r="B28" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="40">
+      <c r="C28" s="45">
         <v>10000</v>
       </c>
-      <c r="D16" s="58" t="s">
-        <v>50</v>
-      </c>
-      <c r="F16" s="17"/>
-    </row>
-    <row r="17" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="24"/>
-      <c r="B17" s="38"/>
-      <c r="C17" s="41">
+      <c r="D28" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="23"/>
+      <c r="B29" s="34"/>
+      <c r="C29" s="46">
         <v>100000</v>
       </c>
-      <c r="D17" s="60" t="s">
-        <v>51</v>
-      </c>
-      <c r="F17" s="17"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="24"/>
-      <c r="B18" s="33"/>
-      <c r="C18" s="48">
+      <c r="D29" s="15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="23"/>
+      <c r="B30" s="30"/>
+      <c r="C30" s="41">
         <v>100</v>
       </c>
-      <c r="D18" s="59" t="s">
-        <v>52</v>
-      </c>
-      <c r="F18" s="17"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="24"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="49">
+      <c r="D30" s="12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="23"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="42">
         <v>1000</v>
       </c>
-      <c r="D19" s="58" t="s">
-        <v>53</v>
-      </c>
-      <c r="F19" s="17"/>
-    </row>
-    <row r="20" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="B20" s="34" t="s">
+      <c r="D31" s="13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="49">
+      <c r="C32" s="42">
         <v>10000</v>
       </c>
-      <c r="D20" s="58" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="24"/>
-      <c r="B21" s="35"/>
-      <c r="C21" s="50">
+      <c r="D32" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="23"/>
+      <c r="B33" s="32"/>
+      <c r="C33" s="43">
         <v>100000</v>
       </c>
-      <c r="D21" s="60" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="24"/>
-      <c r="B22" s="30"/>
-      <c r="C22" s="55">
+      <c r="D33" s="15" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="23"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="47">
         <v>100</v>
       </c>
-      <c r="D22" s="12" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="24"/>
-      <c r="B23" s="20"/>
-      <c r="C23" s="56">
+      <c r="D34" s="12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A35" s="23"/>
+      <c r="B35" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="C35" s="48">
         <v>1000</v>
       </c>
-      <c r="D23" s="13" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="24"/>
-      <c r="B24" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="C24" s="56">
+      <c r="D35" s="13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="23"/>
+      <c r="B36" s="19"/>
+      <c r="C36" s="48">
         <v>10000</v>
       </c>
-      <c r="D24" s="13" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="28"/>
-      <c r="B25" s="22"/>
-      <c r="C25" s="57">
+      <c r="D36" s="13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="27"/>
+      <c r="B37" s="21"/>
+      <c r="C37" s="49">
         <v>100000</v>
       </c>
-      <c r="D25" s="15" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="24"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="54">
+      <c r="D37" s="15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="23"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="44">
         <v>100</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="24"/>
-      <c r="B27" s="21"/>
-      <c r="C27" s="36">
+      <c r="D38" s="12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="23"/>
+      <c r="B39" s="20"/>
+      <c r="C39" s="45">
         <v>1000</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="24"/>
-      <c r="B28" s="37" t="s">
+      <c r="D39" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A40" s="23"/>
+      <c r="B40" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="36">
+      <c r="C40" s="45">
         <v>10000</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="24"/>
-      <c r="B29" s="38"/>
-      <c r="C29" s="36">
+      <c r="D40" s="13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="23"/>
+      <c r="B41" s="34"/>
+      <c r="C41" s="46">
         <v>100000</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="24"/>
-      <c r="B30" s="33"/>
-      <c r="C30" s="32">
+      <c r="D41" s="15" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="23"/>
+      <c r="B42" s="30"/>
+      <c r="C42" s="41">
         <v>100</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="24"/>
-      <c r="B31" s="19"/>
-      <c r="C31" s="32">
+      <c r="D42" s="12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="23"/>
+      <c r="B43" s="18"/>
+      <c r="C43" s="42">
         <v>1000</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A32" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="B32" s="34" t="s">
+      <c r="D43" s="13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A44" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="B44" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="C32" s="32">
+      <c r="C44" s="42">
         <v>10000</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="24"/>
-      <c r="B33" s="35"/>
-      <c r="C33" s="32">
+      <c r="D44" s="13" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="23"/>
+      <c r="B45" s="32"/>
+      <c r="C45" s="43">
         <v>100000</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="24"/>
-      <c r="B34" s="20"/>
-      <c r="C34" s="29">
+      <c r="D45" s="15" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="23"/>
+      <c r="B46" s="28"/>
+      <c r="C46" s="47">
         <v>100</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A35" s="24"/>
-      <c r="B35" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="C35" s="29">
+      <c r="D46" s="12" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="23"/>
+      <c r="B47" s="19"/>
+      <c r="C47" s="48">
         <v>1000</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="24"/>
-      <c r="B36" s="20"/>
-      <c r="C36" s="29">
+      <c r="D47" s="13" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A48" s="23"/>
+      <c r="B48" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48" s="48">
         <v>10000</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="28"/>
-      <c r="B37" s="22"/>
-      <c r="C37" s="29">
+      <c r="D48" s="13" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="27"/>
+      <c r="B49" s="21"/>
+      <c r="C49" s="49">
         <v>100000</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="24"/>
-      <c r="B38" s="18"/>
-      <c r="C38" s="36">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="24"/>
-      <c r="B39" s="21"/>
-      <c r="C39" s="36">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A40" s="24"/>
-      <c r="B40" s="37" t="s">
-        <v>29</v>
-      </c>
-      <c r="C40" s="36">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="24"/>
-      <c r="B41" s="38"/>
-      <c r="C41" s="36">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="24"/>
-      <c r="B42" s="33"/>
-      <c r="C42" s="32">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="24"/>
-      <c r="B43" s="19"/>
-      <c r="C43" s="32">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A44" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="B44" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="C44" s="32">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="24"/>
-      <c r="B45" s="35"/>
-      <c r="C45" s="32">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="24"/>
-      <c r="B46" s="30"/>
-      <c r="C46" s="29">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="24"/>
-      <c r="B47" s="20"/>
-      <c r="C47" s="29">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A48" s="24"/>
-      <c r="B48" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="C48" s="29">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="28"/>
-      <c r="B49" s="22"/>
-      <c r="C49" s="29">
-        <v>100000</v>
+      <c r="D49" s="15" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
